--- a/medicine/Pharmacie/Canarypox/Canarypox.xlsx
+++ b/medicine/Pharmacie/Canarypox/Canarypox.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Canarypox virus
 Le Canarypox virus ou virus de la variole du canari est un virus de la famille des poxviridae provoquant la variole du canari, maladie des oiseaux domestiques ou sauvages responsable de nombreuses pertes dans les élevages avicoles.
